--- a/CPN.xlsx
+++ b/CPN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minqiang\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,8 +214,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -318,12 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -345,27 +339,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,26 +681,26 @@
     <col min="9" max="16384" width="15.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="22" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="G2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -713,19 +713,19 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1710</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -738,19 +738,19 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>200</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>17.170000000000002</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>3434</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -763,19 +763,19 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>17.37</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>1737</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -788,19 +788,19 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>300</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>17.149999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>5145</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -813,19 +813,19 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>200</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>17.739999999999998</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>3548</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -838,19 +838,19 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>200</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>17.850000000000001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>3570</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -863,19 +863,19 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>50</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>16.96</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>848</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -888,19 +888,19 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>100</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>17.100000000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1710</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -913,19 +913,19 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>17.3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>519</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="19"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -933,22 +933,22 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>348</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>1.05</v>
       </c>
       <c r="I12"/>
@@ -957,19 +957,19 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>1000</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>18.45</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>18450</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -982,187 +982,187 @@
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>210</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>18.12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>3805.2</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>2000</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>18.399999999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>36800</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>50</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>18.72</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>936</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>378</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>19.059999999999999</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>381.2</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>39</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>19.25</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>750.75</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <v>0.61</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>19.79</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>197.9</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>50</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>19.7</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>985</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>20.3</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>20.3</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <v>42314</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1170,18 +1170,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2">
         <f>SUM(B3:B22)</f>
         <v>4700</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="13">
         <f>SUM(D3:D22)</f>
         <v>85273.349999999991</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1189,48 +1189,48 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="13">
         <f>D24/B24</f>
         <v>18.143265957446808</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="13">
+        <v>17.05</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <f>(D27-D26)/D26</f>
-        <v>-6.3564407871861531E-2</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+        <v>-6.0257395774881511E-2</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="12">
         <f>(D27-D26)*B24</f>
-        <v>-5420.3500000000031</v>
+        <v>-5138.3499999999922</v>
       </c>
     </row>
   </sheetData>
